--- a/Financials/Yearly/RELX_YR_FIN.xlsx
+++ b/Financials/Yearly/RELX_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822A124C-A105-4D7B-A827-9AE7FFC6B36E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RELX" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>RELX</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,140 +689,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9666600</v>
+        <v>9771900</v>
       </c>
       <c r="E8" s="3">
-        <v>9079300</v>
+        <v>9574900</v>
       </c>
       <c r="F8" s="3">
-        <v>7862600</v>
+        <v>8985400</v>
       </c>
       <c r="G8" s="3">
-        <v>7601800</v>
+        <v>7788000</v>
       </c>
       <c r="H8" s="3">
-        <v>7946800</v>
+        <v>7529800</v>
       </c>
       <c r="I8" s="3">
-        <v>8053500</v>
+        <v>7871500</v>
       </c>
       <c r="J8" s="3">
+        <v>7977200</v>
+      </c>
+      <c r="K8" s="3">
         <v>7903400</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3460500</v>
+        <v>3448600</v>
       </c>
       <c r="E9" s="3">
-        <v>3276200</v>
+        <v>3427700</v>
       </c>
       <c r="F9" s="3">
-        <v>2803400</v>
+        <v>3245100</v>
       </c>
       <c r="G9" s="3">
-        <v>2641500</v>
+        <v>2776900</v>
       </c>
       <c r="H9" s="3">
-        <v>2789000</v>
+        <v>2616400</v>
       </c>
       <c r="I9" s="3">
-        <v>2816600</v>
+        <v>2762500</v>
       </c>
       <c r="J9" s="3">
+        <v>2789900</v>
+      </c>
+      <c r="K9" s="3">
         <v>2799500</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6206000</v>
+        <v>6323300</v>
       </c>
       <c r="E10" s="3">
-        <v>5803100</v>
+        <v>6147200</v>
       </c>
       <c r="F10" s="3">
-        <v>5059100</v>
+        <v>5740300</v>
       </c>
       <c r="G10" s="3">
-        <v>4960300</v>
+        <v>5011200</v>
       </c>
       <c r="H10" s="3">
-        <v>5157900</v>
+        <v>4913300</v>
       </c>
       <c r="I10" s="3">
-        <v>5236900</v>
+        <v>5109000</v>
       </c>
       <c r="J10" s="3">
+        <v>5187200</v>
+      </c>
+      <c r="K10" s="3">
         <v>5103900</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +846,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,9 +873,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,47 +903,53 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-34200</v>
+        <v>43000</v>
       </c>
       <c r="E14" s="3">
-        <v>52700</v>
+        <v>-39100</v>
       </c>
       <c r="F14" s="3">
-        <v>14500</v>
+        <v>47000</v>
       </c>
       <c r="G14" s="3">
-        <v>14500</v>
+        <v>14300</v>
       </c>
       <c r="H14" s="3">
-        <v>-21100</v>
+        <v>14300</v>
       </c>
       <c r="I14" s="3">
-        <v>-118500</v>
-      </c>
-      <c r="J14" s="3" t="s">
+        <v>-20900</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-117400</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>374300</v>
+      </c>
+      <c r="E15" s="3">
+        <v>408200</v>
+      </c>
+      <c r="F15" s="3">
+        <v>446100</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -903,12 +960,15 @@
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3">
         <v>740000</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +977,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7138300</v>
+        <v>7253300</v>
       </c>
       <c r="E17" s="3">
-        <v>6882900</v>
+        <v>7070700</v>
       </c>
       <c r="F17" s="3">
-        <v>5905800</v>
+        <v>6804600</v>
       </c>
       <c r="G17" s="3">
-        <v>5770200</v>
+        <v>5849800</v>
       </c>
       <c r="H17" s="3">
-        <v>6113900</v>
+        <v>5715500</v>
       </c>
       <c r="I17" s="3">
-        <v>6239000</v>
+        <v>6055900</v>
       </c>
       <c r="J17" s="3">
+        <v>6179800</v>
+      </c>
+      <c r="K17" s="3">
         <v>6316600</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2528200</v>
+        <v>2518600</v>
       </c>
       <c r="E18" s="3">
-        <v>2196400</v>
+        <v>2504300</v>
       </c>
       <c r="F18" s="3">
-        <v>1956700</v>
+        <v>2180800</v>
       </c>
       <c r="G18" s="3">
-        <v>1831700</v>
+        <v>1938200</v>
       </c>
       <c r="H18" s="3">
-        <v>1833000</v>
+        <v>1814300</v>
       </c>
       <c r="I18" s="3">
-        <v>1814500</v>
+        <v>1815600</v>
       </c>
       <c r="J18" s="3">
+        <v>1797300</v>
+      </c>
+      <c r="K18" s="3">
         <v>1586700</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,143 +1051,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-48700</v>
+        <v>-18300</v>
       </c>
       <c r="E20" s="3">
-        <v>-26300</v>
+        <v>-23500</v>
       </c>
       <c r="F20" s="3">
-        <v>-29000</v>
+        <v>-24800</v>
       </c>
       <c r="G20" s="3">
-        <v>-19800</v>
+        <v>-28700</v>
       </c>
       <c r="H20" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-21100</v>
       </c>
-      <c r="I20" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-21100</v>
-      </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3340100</v>
+        <v>3359000</v>
       </c>
       <c r="E21" s="3">
-        <v>2955900</v>
+        <v>3346000</v>
       </c>
       <c r="F21" s="3">
-        <v>2610000</v>
+        <v>3035700</v>
       </c>
       <c r="G21" s="3">
-        <v>2492800</v>
+        <v>2595300</v>
       </c>
       <c r="H21" s="3">
-        <v>2554400</v>
+        <v>2479200</v>
       </c>
       <c r="I21" s="3">
-        <v>2538700</v>
+        <v>2541200</v>
       </c>
       <c r="J21" s="3">
+        <v>2525400</v>
+      </c>
+      <c r="K21" s="3">
         <v>2303000</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>213300</v>
+        <v>256900</v>
       </c>
       <c r="E22" s="3">
-        <v>230400</v>
+        <v>236100</v>
       </c>
       <c r="F22" s="3">
-        <v>200200</v>
+        <v>253000</v>
       </c>
       <c r="G22" s="3">
-        <v>193600</v>
+        <v>198300</v>
       </c>
       <c r="H22" s="3">
-        <v>237000</v>
+        <v>191700</v>
       </c>
       <c r="I22" s="3">
-        <v>295000</v>
+        <v>234800</v>
       </c>
       <c r="J22" s="3">
+        <v>292200</v>
+      </c>
+      <c r="K22" s="3">
         <v>317300</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2266200</v>
+        <v>2243400</v>
       </c>
       <c r="E23" s="3">
-        <v>1939600</v>
+        <v>2244700</v>
       </c>
       <c r="F23" s="3">
-        <v>1727600</v>
+        <v>1903000</v>
       </c>
       <c r="G23" s="3">
-        <v>1618300</v>
+        <v>1711300</v>
       </c>
       <c r="H23" s="3">
-        <v>1574900</v>
+        <v>1603000</v>
       </c>
       <c r="I23" s="3">
-        <v>1515600</v>
+        <v>1560000</v>
       </c>
       <c r="J23" s="3">
+        <v>1501300</v>
+      </c>
+      <c r="K23" s="3">
         <v>1248300</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>85600</v>
+        <v>391300</v>
       </c>
       <c r="E24" s="3">
-        <v>400300</v>
+        <v>536100</v>
       </c>
       <c r="F24" s="3">
-        <v>392400</v>
+        <v>393900</v>
       </c>
       <c r="G24" s="3">
-        <v>354200</v>
+        <v>388700</v>
       </c>
       <c r="H24" s="3">
-        <v>106700</v>
+        <v>350900</v>
       </c>
       <c r="I24" s="3">
-        <v>134300</v>
+        <v>105600</v>
       </c>
       <c r="J24" s="3">
+        <v>133000</v>
+      </c>
+      <c r="K24" s="3">
         <v>238300</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1228,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2180600</v>
+        <v>1852100</v>
       </c>
       <c r="E26" s="3">
-        <v>1539300</v>
+        <v>1708600</v>
       </c>
       <c r="F26" s="3">
-        <v>1335200</v>
+        <v>1509100</v>
       </c>
       <c r="G26" s="3">
-        <v>1264100</v>
+        <v>1322600</v>
       </c>
       <c r="H26" s="3">
-        <v>1468200</v>
+        <v>1252100</v>
       </c>
       <c r="I26" s="3">
-        <v>1381300</v>
+        <v>1454300</v>
       </c>
       <c r="J26" s="3">
+        <v>1368200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1010000</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2170100</v>
+        <v>1844300</v>
       </c>
       <c r="E27" s="3">
-        <v>1528800</v>
+        <v>1698200</v>
       </c>
       <c r="F27" s="3">
-        <v>1327300</v>
+        <v>1498700</v>
       </c>
       <c r="G27" s="3">
-        <v>1257500</v>
+        <v>1314700</v>
       </c>
       <c r="H27" s="3">
-        <v>1461600</v>
+        <v>1245600</v>
       </c>
       <c r="I27" s="3">
-        <v>1374700</v>
+        <v>1447800</v>
       </c>
       <c r="J27" s="3">
+        <v>1361700</v>
+      </c>
+      <c r="K27" s="3">
         <v>1000800</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,36 +1318,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>10400</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>451300</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+        <v>1300</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1378,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1408,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>48700</v>
+        <v>18300</v>
       </c>
       <c r="E32" s="3">
-        <v>26300</v>
+        <v>23500</v>
       </c>
       <c r="F32" s="3">
-        <v>29000</v>
+        <v>24800</v>
       </c>
       <c r="G32" s="3">
-        <v>19800</v>
+        <v>28700</v>
       </c>
       <c r="H32" s="3">
+        <v>19600</v>
+      </c>
+      <c r="I32" s="3">
+        <v>20900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K32" s="3">
         <v>21100</v>
       </c>
-      <c r="I32" s="3">
-        <v>4000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>21100</v>
-      </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2170100</v>
+        <v>1854700</v>
       </c>
       <c r="E33" s="3">
-        <v>1528800</v>
+        <v>2149500</v>
       </c>
       <c r="F33" s="3">
-        <v>1327300</v>
+        <v>1500000</v>
       </c>
       <c r="G33" s="3">
-        <v>1257500</v>
+        <v>1314700</v>
       </c>
       <c r="H33" s="3">
-        <v>1461600</v>
+        <v>1245600</v>
       </c>
       <c r="I33" s="3">
-        <v>1374700</v>
+        <v>1447800</v>
       </c>
       <c r="J33" s="3">
+        <v>1361700</v>
+      </c>
+      <c r="K33" s="3">
         <v>1000800</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1498,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2170100</v>
+        <v>1854700</v>
       </c>
       <c r="E35" s="3">
-        <v>1528800</v>
+        <v>2149500</v>
       </c>
       <c r="F35" s="3">
-        <v>1327300</v>
+        <v>1500000</v>
       </c>
       <c r="G35" s="3">
-        <v>1257500</v>
+        <v>1314700</v>
       </c>
       <c r="H35" s="3">
-        <v>1461600</v>
+        <v>1245600</v>
       </c>
       <c r="I35" s="3">
-        <v>1374700</v>
+        <v>1447800</v>
       </c>
       <c r="J35" s="3">
+        <v>1361700</v>
+      </c>
+      <c r="K35" s="3">
         <v>1000800</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1580,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,35 +1594,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>146200</v>
+        <v>148700</v>
       </c>
       <c r="E41" s="3">
-        <v>213300</v>
+        <v>144800</v>
       </c>
       <c r="F41" s="3">
-        <v>160600</v>
+        <v>211300</v>
       </c>
       <c r="G41" s="3">
-        <v>363400</v>
+        <v>159100</v>
       </c>
       <c r="H41" s="3">
-        <v>173800</v>
+        <v>360000</v>
       </c>
       <c r="I41" s="3">
-        <v>844100</v>
+        <v>172200</v>
       </c>
       <c r="J41" s="3">
+        <v>836100</v>
+      </c>
+      <c r="K41" s="3">
         <v>956000</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1527,198 +1651,222 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4577200</v>
+        <v>2336000</v>
       </c>
       <c r="E43" s="3">
-        <v>2272800</v>
+        <v>4608100</v>
       </c>
       <c r="F43" s="3">
-        <v>1856700</v>
+        <v>4879400</v>
       </c>
       <c r="G43" s="3">
-        <v>1726300</v>
+        <v>1839100</v>
       </c>
       <c r="H43" s="3">
-        <v>1635500</v>
+        <v>1710000</v>
       </c>
       <c r="I43" s="3">
-        <v>1586700</v>
+        <v>1620000</v>
       </c>
       <c r="J43" s="3">
+        <v>1571700</v>
+      </c>
+      <c r="K43" s="3">
         <v>1709200</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>518800</v>
+        <v>276500</v>
       </c>
       <c r="E44" s="3">
-        <v>275200</v>
+        <v>513900</v>
       </c>
       <c r="F44" s="3">
-        <v>208100</v>
+        <v>545200</v>
       </c>
       <c r="G44" s="3">
-        <v>187000</v>
+        <v>206100</v>
       </c>
       <c r="H44" s="3">
-        <v>187000</v>
+        <v>185200</v>
       </c>
       <c r="I44" s="3">
-        <v>209400</v>
+        <v>185200</v>
       </c>
       <c r="J44" s="3">
+        <v>207400</v>
+      </c>
+      <c r="K44" s="3">
         <v>250200</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>326600</v>
+        <v>305200</v>
       </c>
       <c r="E45" s="3">
-        <v>329200</v>
+        <v>315600</v>
       </c>
       <c r="F45" s="3">
-        <v>292300</v>
+        <v>326100</v>
       </c>
       <c r="G45" s="3">
-        <v>272600</v>
+        <v>289600</v>
       </c>
       <c r="H45" s="3">
-        <v>392400</v>
+        <v>270000</v>
       </c>
       <c r="I45" s="3">
-        <v>305500</v>
+        <v>388700</v>
       </c>
       <c r="J45" s="3">
+        <v>302600</v>
+      </c>
+      <c r="K45" s="3">
         <v>439800</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2910100</v>
+        <v>3066400</v>
       </c>
       <c r="E46" s="3">
-        <v>3090500</v>
+        <v>2882500</v>
       </c>
       <c r="F46" s="3">
-        <v>2517700</v>
+        <v>3138200</v>
       </c>
       <c r="G46" s="3">
-        <v>2549300</v>
+        <v>2493800</v>
       </c>
       <c r="H46" s="3">
-        <v>2388700</v>
+        <v>2525100</v>
       </c>
       <c r="I46" s="3">
-        <v>2945700</v>
+        <v>2366000</v>
       </c>
       <c r="J46" s="3">
+        <v>2917700</v>
+      </c>
+      <c r="K46" s="3">
         <v>3355200</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>320000</v>
+        <v>332600</v>
       </c>
       <c r="E47" s="3">
-        <v>314700</v>
+        <v>316900</v>
       </c>
       <c r="F47" s="3">
-        <v>318700</v>
+        <v>311700</v>
       </c>
       <c r="G47" s="3">
-        <v>312100</v>
+        <v>315600</v>
       </c>
       <c r="H47" s="3">
-        <v>285700</v>
+        <v>309100</v>
       </c>
       <c r="I47" s="3">
-        <v>235700</v>
+        <v>283000</v>
       </c>
       <c r="J47" s="3">
+        <v>233500</v>
+      </c>
+      <c r="K47" s="3">
         <v>247600</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>908600</v>
+        <v>601300</v>
       </c>
       <c r="E48" s="3">
-        <v>318700</v>
+        <v>880400</v>
       </c>
       <c r="F48" s="3">
-        <v>301500</v>
+        <v>1031700</v>
       </c>
       <c r="G48" s="3">
-        <v>298900</v>
+        <v>298700</v>
       </c>
       <c r="H48" s="3">
-        <v>312100</v>
+        <v>296100</v>
       </c>
       <c r="I48" s="3">
-        <v>347600</v>
+        <v>309100</v>
       </c>
       <c r="J48" s="3">
+        <v>344300</v>
+      </c>
+      <c r="K48" s="3">
         <v>379200</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16266300</v>
+        <v>13607900</v>
       </c>
       <c r="E49" s="3">
-        <v>13162600</v>
+        <v>16112100</v>
       </c>
       <c r="F49" s="3">
-        <v>11043900</v>
+        <v>17738600</v>
       </c>
       <c r="G49" s="3">
-        <v>10725300</v>
+        <v>10939200</v>
       </c>
       <c r="H49" s="3">
-        <v>10139300</v>
+        <v>10623600</v>
       </c>
       <c r="I49" s="3">
-        <v>10297300</v>
+        <v>10043200</v>
       </c>
       <c r="J49" s="3">
+        <v>10199700</v>
+      </c>
+      <c r="K49" s="3">
         <v>10828000</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1891,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1921,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>709700</v>
+        <v>650900</v>
       </c>
       <c r="E52" s="3">
-        <v>657100</v>
+        <v>703000</v>
       </c>
       <c r="F52" s="3">
-        <v>546500</v>
+        <v>683500</v>
       </c>
       <c r="G52" s="3">
-        <v>713700</v>
+        <v>541300</v>
       </c>
       <c r="H52" s="3">
-        <v>693900</v>
+        <v>706900</v>
       </c>
       <c r="I52" s="3">
-        <v>676800</v>
+        <v>687400</v>
       </c>
       <c r="J52" s="3">
+        <v>670400</v>
+      </c>
+      <c r="K52" s="3">
         <v>337100</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1981,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16633700</v>
+        <v>18259000</v>
       </c>
       <c r="E54" s="3">
-        <v>17543600</v>
+        <v>16476000</v>
       </c>
       <c r="F54" s="3">
-        <v>14728300</v>
+        <v>17887300</v>
       </c>
       <c r="G54" s="3">
-        <v>14599300</v>
+        <v>14588700</v>
       </c>
       <c r="H54" s="3">
-        <v>13819700</v>
+        <v>14460900</v>
       </c>
       <c r="I54" s="3">
-        <v>14503100</v>
+        <v>13688700</v>
       </c>
       <c r="J54" s="3">
+        <v>14365700</v>
+      </c>
+      <c r="K54" s="3">
         <v>15147000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +2028,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2042,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4658800</v>
+        <v>243900</v>
       </c>
       <c r="E57" s="3">
-        <v>391100</v>
+        <v>4614600</v>
       </c>
       <c r="F57" s="3">
-        <v>321300</v>
+        <v>4925100</v>
       </c>
       <c r="G57" s="3">
-        <v>438500</v>
+        <v>318300</v>
       </c>
       <c r="H57" s="3">
-        <v>2004200</v>
+        <v>434300</v>
       </c>
       <c r="I57" s="3">
-        <v>1514300</v>
+        <v>1985200</v>
       </c>
       <c r="J57" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1639400</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1896200</v>
+        <v>1815600</v>
       </c>
       <c r="E58" s="3">
-        <v>1526200</v>
+        <v>1987800</v>
       </c>
       <c r="F58" s="3">
-        <v>821700</v>
+        <v>3036400</v>
       </c>
       <c r="G58" s="3">
-        <v>890200</v>
+        <v>813900</v>
       </c>
       <c r="H58" s="3">
-        <v>853300</v>
+        <v>881700</v>
       </c>
       <c r="I58" s="3">
-        <v>961300</v>
+        <v>845200</v>
       </c>
       <c r="J58" s="3">
+        <v>952100</v>
+      </c>
+      <c r="K58" s="3">
         <v>1293100</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4741800</v>
+        <v>4880700</v>
       </c>
       <c r="E59" s="3">
-        <v>5067000</v>
+        <v>4776400</v>
       </c>
       <c r="F59" s="3">
-        <v>4355900</v>
+        <v>5011200</v>
       </c>
       <c r="G59" s="3">
-        <v>3854200</v>
+        <v>4314700</v>
       </c>
       <c r="H59" s="3">
-        <v>3784500</v>
+        <v>3817700</v>
       </c>
       <c r="I59" s="3">
-        <v>2683600</v>
+        <v>3748600</v>
       </c>
       <c r="J59" s="3">
+        <v>2658200</v>
+      </c>
+      <c r="K59" s="3">
         <v>2893000</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6141500</v>
+        <v>6940200</v>
       </c>
       <c r="E60" s="3">
-        <v>6984300</v>
+        <v>6083300</v>
       </c>
       <c r="F60" s="3">
-        <v>5498900</v>
+        <v>6993700</v>
       </c>
       <c r="G60" s="3">
-        <v>5182900</v>
+        <v>5446800</v>
       </c>
       <c r="H60" s="3">
-        <v>5072300</v>
+        <v>5133800</v>
       </c>
       <c r="I60" s="3">
-        <v>5159200</v>
+        <v>5024200</v>
       </c>
       <c r="J60" s="3">
+        <v>5110300</v>
+      </c>
+      <c r="K60" s="3">
         <v>5825500</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5913700</v>
+        <v>6486300</v>
       </c>
       <c r="E61" s="3">
-        <v>4851100</v>
+        <v>5857700</v>
       </c>
       <c r="F61" s="3">
-        <v>4316400</v>
+        <v>5330700</v>
       </c>
       <c r="G61" s="3">
-        <v>4146600</v>
+        <v>4275500</v>
       </c>
       <c r="H61" s="3">
-        <v>3467100</v>
+        <v>4107300</v>
       </c>
       <c r="I61" s="3">
-        <v>4163700</v>
+        <v>3434200</v>
       </c>
       <c r="J61" s="3">
+        <v>4124200</v>
+      </c>
+      <c r="K61" s="3">
         <v>4345400</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1532700</v>
+        <v>1750400</v>
       </c>
       <c r="E62" s="3">
-        <v>2596700</v>
+        <v>1518200</v>
       </c>
       <c r="F62" s="3">
-        <v>2033100</v>
+        <v>2546000</v>
       </c>
       <c r="G62" s="3">
-        <v>2453200</v>
+        <v>2013900</v>
       </c>
       <c r="H62" s="3">
-        <v>2085800</v>
+        <v>2429900</v>
       </c>
       <c r="I62" s="3">
-        <v>2006800</v>
+        <v>2066000</v>
       </c>
       <c r="J62" s="3">
+        <v>1987800</v>
+      </c>
+      <c r="K62" s="3">
         <v>2060800</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2249,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2279,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2309,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13615600</v>
+        <v>15221300</v>
       </c>
       <c r="E66" s="3">
-        <v>14488600</v>
+        <v>13486600</v>
       </c>
       <c r="F66" s="3">
-        <v>11905100</v>
+        <v>14926500</v>
       </c>
       <c r="G66" s="3">
-        <v>11826100</v>
+        <v>11792300</v>
       </c>
       <c r="H66" s="3">
-        <v>10672600</v>
+        <v>11714000</v>
       </c>
       <c r="I66" s="3">
-        <v>11500800</v>
+        <v>10571400</v>
       </c>
       <c r="J66" s="3">
+        <v>11391800</v>
+      </c>
+      <c r="K66" s="3">
         <v>12287000</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2356,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2383,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2413,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2443,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2473,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1204900</v>
+        <v>1283400</v>
       </c>
       <c r="E72" s="3">
-        <v>-42100</v>
+        <v>1193400</v>
       </c>
       <c r="F72" s="3">
-        <v>488500</v>
+        <v>-322200</v>
       </c>
       <c r="G72" s="3">
-        <v>108000</v>
+        <v>483900</v>
       </c>
       <c r="H72" s="3">
-        <v>1062600</v>
+        <v>107000</v>
       </c>
       <c r="I72" s="3">
-        <v>297600</v>
+        <v>1052600</v>
       </c>
       <c r="J72" s="3">
+        <v>294800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-198800</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2533,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2563,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2593,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3018100</v>
+        <v>3037700</v>
       </c>
       <c r="E76" s="3">
-        <v>3055000</v>
+        <v>2989500</v>
       </c>
       <c r="F76" s="3">
-        <v>2823200</v>
+        <v>2960800</v>
       </c>
       <c r="G76" s="3">
-        <v>2773200</v>
+        <v>2796400</v>
       </c>
       <c r="H76" s="3">
-        <v>3147100</v>
+        <v>2746900</v>
       </c>
       <c r="I76" s="3">
-        <v>3002300</v>
+        <v>3117300</v>
       </c>
       <c r="J76" s="3">
+        <v>2973800</v>
+      </c>
+      <c r="K76" s="3">
         <v>2860100</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2653,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2170100</v>
+        <v>1854700</v>
       </c>
       <c r="E81" s="3">
-        <v>1528800</v>
+        <v>2149500</v>
       </c>
       <c r="F81" s="3">
-        <v>1327300</v>
+        <v>1500000</v>
       </c>
       <c r="G81" s="3">
-        <v>1257500</v>
+        <v>1314700</v>
       </c>
       <c r="H81" s="3">
-        <v>1461600</v>
+        <v>1245600</v>
       </c>
       <c r="I81" s="3">
-        <v>1374700</v>
+        <v>1447800</v>
       </c>
       <c r="J81" s="3">
+        <v>1361700</v>
+      </c>
+      <c r="K81" s="3">
         <v>1000800</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2735,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>863800</v>
+        <v>849100</v>
       </c>
       <c r="E83" s="3">
-        <v>788800</v>
+        <v>855600</v>
       </c>
       <c r="F83" s="3">
-        <v>684700</v>
+        <v>870000</v>
       </c>
       <c r="G83" s="3">
-        <v>683400</v>
+        <v>678200</v>
       </c>
       <c r="H83" s="3">
-        <v>745300</v>
+        <v>676900</v>
       </c>
       <c r="I83" s="3">
-        <v>730800</v>
+        <v>738200</v>
       </c>
       <c r="J83" s="3">
+        <v>723900</v>
+      </c>
+      <c r="K83" s="3">
         <v>740000</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2792,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2822,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2852,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2882,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2912,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2520300</v>
+        <v>2589100</v>
       </c>
       <c r="E89" s="3">
-        <v>2214800</v>
+        <v>2496400</v>
       </c>
       <c r="F89" s="3">
-        <v>1852700</v>
+        <v>2270800</v>
       </c>
       <c r="G89" s="3">
-        <v>1813200</v>
+        <v>1835200</v>
       </c>
       <c r="H89" s="3">
-        <v>1825100</v>
+        <v>1796000</v>
       </c>
       <c r="I89" s="3">
-        <v>1852700</v>
+        <v>1807800</v>
       </c>
       <c r="J89" s="3">
+        <v>1835200</v>
+      </c>
+      <c r="K89" s="3">
         <v>1688100</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2959,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-466100</v>
+        <v>-73000</v>
       </c>
       <c r="E91" s="3">
-        <v>-438500</v>
+        <v>-66500</v>
       </c>
       <c r="F91" s="3">
-        <v>-404300</v>
+        <v>-66500</v>
       </c>
       <c r="G91" s="3">
-        <v>-355500</v>
+        <v>-84800</v>
       </c>
       <c r="H91" s="3">
-        <v>-405600</v>
+        <v>-87400</v>
       </c>
       <c r="I91" s="3">
-        <v>-438500</v>
+        <v>-74300</v>
       </c>
       <c r="J91" s="3">
+        <v>-91300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-460900</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +3016,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3046,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-546500</v>
+        <v>-1657800</v>
       </c>
       <c r="E94" s="3">
-        <v>-879600</v>
+        <v>-541300</v>
       </c>
       <c r="F94" s="3">
-        <v>-555700</v>
+        <v>-860800</v>
       </c>
       <c r="G94" s="3">
-        <v>-744000</v>
+        <v>-550400</v>
       </c>
       <c r="H94" s="3">
-        <v>-416100</v>
+        <v>-736900</v>
       </c>
       <c r="I94" s="3">
-        <v>-626800</v>
+        <v>-412200</v>
       </c>
       <c r="J94" s="3">
+        <v>-620900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-949400</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3093,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1003400</v>
+        <v>-1038200</v>
       </c>
       <c r="E96" s="3">
-        <v>-899400</v>
+        <v>-993900</v>
       </c>
       <c r="F96" s="3">
-        <v>-767700</v>
+        <v>-890800</v>
       </c>
       <c r="G96" s="3">
-        <v>-744000</v>
+        <v>-760400</v>
       </c>
       <c r="H96" s="3">
-        <v>-722900</v>
+        <v>-736900</v>
       </c>
       <c r="I96" s="3">
-        <v>-686000</v>
+        <v>-716100</v>
       </c>
       <c r="J96" s="3">
+        <v>-679500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-654400</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3150,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3180,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3210,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2033100</v>
+        <v>-930000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1323400</v>
+        <v>-2013900</v>
       </c>
       <c r="F100" s="3">
-        <v>-1480100</v>
+        <v>-1398200</v>
       </c>
       <c r="G100" s="3">
-        <v>-882200</v>
+        <v>-1466000</v>
       </c>
       <c r="H100" s="3">
-        <v>-2109500</v>
+        <v>-873900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1320700</v>
+        <v>-2089500</v>
       </c>
       <c r="J100" s="3">
+        <v>-1308200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-796700</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7900</v>
+        <v>2600</v>
       </c>
       <c r="E101" s="3">
-        <v>40800</v>
+        <v>-7800</v>
       </c>
       <c r="F101" s="3">
-        <v>-19800</v>
+        <v>40400</v>
       </c>
       <c r="G101" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="H101" s="3">
         <v>2600</v>
       </c>
-      <c r="H101" s="3">
-        <v>30300</v>
-      </c>
       <c r="I101" s="3">
-        <v>-17100</v>
+        <v>30000</v>
       </c>
       <c r="J101" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="K101" s="3">
         <v>36900</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-67200</v>
+        <v>3900</v>
       </c>
       <c r="E102" s="3">
-        <v>52700</v>
+        <v>-66500</v>
       </c>
       <c r="F102" s="3">
-        <v>-202800</v>
+        <v>52200</v>
       </c>
       <c r="G102" s="3">
-        <v>189600</v>
+        <v>-200900</v>
       </c>
       <c r="H102" s="3">
-        <v>-670200</v>
+        <v>187800</v>
       </c>
       <c r="I102" s="3">
-        <v>-111900</v>
+        <v>-663900</v>
       </c>
       <c r="J102" s="3">
+        <v>-110900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-21100</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/RELX_YR_FIN.xlsx
+++ b/Financials/Yearly/RELX_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822A124C-A105-4D7B-A827-9AE7FFC6B36E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="RELX" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,32 +654,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -744,97 +709,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9771900</v>
+        <v>9685700</v>
       </c>
       <c r="E8" s="3">
-        <v>9574900</v>
+        <v>9490500</v>
       </c>
       <c r="F8" s="3">
-        <v>8985400</v>
+        <v>8906200</v>
       </c>
       <c r="G8" s="3">
-        <v>7788000</v>
+        <v>7719400</v>
       </c>
       <c r="H8" s="3">
-        <v>7529800</v>
+        <v>7463400</v>
       </c>
       <c r="I8" s="3">
-        <v>7871500</v>
+        <v>7802100</v>
       </c>
       <c r="J8" s="3">
-        <v>7977200</v>
+        <v>7906800</v>
       </c>
       <c r="K8" s="3">
         <v>7903400</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3448600</v>
+        <v>3418200</v>
       </c>
       <c r="E9" s="3">
-        <v>3427700</v>
+        <v>3397500</v>
       </c>
       <c r="F9" s="3">
-        <v>3245100</v>
+        <v>3216500</v>
       </c>
       <c r="G9" s="3">
-        <v>2776900</v>
+        <v>2752400</v>
       </c>
       <c r="H9" s="3">
-        <v>2616400</v>
+        <v>2593400</v>
       </c>
       <c r="I9" s="3">
-        <v>2762500</v>
+        <v>2738200</v>
       </c>
       <c r="J9" s="3">
-        <v>2789900</v>
+        <v>2765300</v>
       </c>
       <c r="K9" s="3">
         <v>2799500</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6323300</v>
+        <v>6267500</v>
       </c>
       <c r="E10" s="3">
-        <v>6147200</v>
+        <v>6093000</v>
       </c>
       <c r="F10" s="3">
-        <v>5740300</v>
+        <v>5689700</v>
       </c>
       <c r="G10" s="3">
-        <v>5011200</v>
+        <v>4967000</v>
       </c>
       <c r="H10" s="3">
-        <v>4913300</v>
+        <v>4870000</v>
       </c>
       <c r="I10" s="3">
-        <v>5109000</v>
+        <v>5063900</v>
       </c>
       <c r="J10" s="3">
-        <v>5187200</v>
+        <v>5141500</v>
       </c>
       <c r="K10" s="3">
         <v>5103900</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,7 +813,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,7 +843,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,48 +873,48 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>43000</v>
+        <v>42700</v>
       </c>
       <c r="E14" s="3">
-        <v>-39100</v>
+        <v>-38800</v>
       </c>
       <c r="F14" s="3">
-        <v>47000</v>
+        <v>46500</v>
       </c>
       <c r="G14" s="3">
-        <v>14300</v>
+        <v>14200</v>
       </c>
       <c r="H14" s="3">
-        <v>14300</v>
+        <v>14200</v>
       </c>
       <c r="I14" s="3">
-        <v>-20900</v>
+        <v>-20700</v>
       </c>
       <c r="J14" s="3">
-        <v>-117400</v>
+        <v>-116400</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>374300</v>
+        <v>371000</v>
       </c>
       <c r="E15" s="3">
-        <v>408200</v>
+        <v>404600</v>
       </c>
       <c r="F15" s="3">
-        <v>446100</v>
+        <v>442100</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -968,7 +933,7 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -979,67 +944,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7253300</v>
+        <v>7189300</v>
       </c>
       <c r="E17" s="3">
-        <v>7070700</v>
+        <v>7008300</v>
       </c>
       <c r="F17" s="3">
-        <v>6804600</v>
+        <v>6744600</v>
       </c>
       <c r="G17" s="3">
-        <v>5849800</v>
+        <v>5798300</v>
       </c>
       <c r="H17" s="3">
-        <v>5715500</v>
+        <v>5665100</v>
       </c>
       <c r="I17" s="3">
-        <v>6055900</v>
+        <v>6002500</v>
       </c>
       <c r="J17" s="3">
-        <v>6179800</v>
+        <v>6125300</v>
       </c>
       <c r="K17" s="3">
         <v>6316600</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2518600</v>
+        <v>2496400</v>
       </c>
       <c r="E18" s="3">
-        <v>2504300</v>
+        <v>2482200</v>
       </c>
       <c r="F18" s="3">
-        <v>2180800</v>
+        <v>2161600</v>
       </c>
       <c r="G18" s="3">
-        <v>1938200</v>
+        <v>1921100</v>
       </c>
       <c r="H18" s="3">
-        <v>1814300</v>
+        <v>1798300</v>
       </c>
       <c r="I18" s="3">
-        <v>1815600</v>
+        <v>1799600</v>
       </c>
       <c r="J18" s="3">
-        <v>1797300</v>
+        <v>1781500</v>
       </c>
       <c r="K18" s="3">
         <v>1586700</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,27 +1018,27 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-18300</v>
+        <v>-18100</v>
       </c>
       <c r="E20" s="3">
-        <v>-23500</v>
+        <v>-23300</v>
       </c>
       <c r="F20" s="3">
-        <v>-24800</v>
+        <v>-24600</v>
       </c>
       <c r="G20" s="3">
-        <v>-28700</v>
+        <v>-28400</v>
       </c>
       <c r="H20" s="3">
-        <v>-19600</v>
+        <v>-19400</v>
       </c>
       <c r="I20" s="3">
-        <v>-20900</v>
+        <v>-20700</v>
       </c>
       <c r="J20" s="3">
         <v>-3900</v>
@@ -1083,127 +1048,127 @@
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3359000</v>
+        <v>3324600</v>
       </c>
       <c r="E21" s="3">
-        <v>3346000</v>
+        <v>3311700</v>
       </c>
       <c r="F21" s="3">
-        <v>3035700</v>
+        <v>3004100</v>
       </c>
       <c r="G21" s="3">
-        <v>2595300</v>
+        <v>2568700</v>
       </c>
       <c r="H21" s="3">
-        <v>2479200</v>
+        <v>2453600</v>
       </c>
       <c r="I21" s="3">
-        <v>2541200</v>
+        <v>2514700</v>
       </c>
       <c r="J21" s="3">
-        <v>2525400</v>
+        <v>2499100</v>
       </c>
       <c r="K21" s="3">
         <v>2303000</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>256900</v>
+        <v>254700</v>
       </c>
       <c r="E22" s="3">
-        <v>236100</v>
+        <v>234000</v>
       </c>
       <c r="F22" s="3">
-        <v>253000</v>
+        <v>250800</v>
       </c>
       <c r="G22" s="3">
-        <v>198300</v>
+        <v>196500</v>
       </c>
       <c r="H22" s="3">
-        <v>191700</v>
+        <v>190000</v>
       </c>
       <c r="I22" s="3">
-        <v>234800</v>
+        <v>232700</v>
       </c>
       <c r="J22" s="3">
-        <v>292200</v>
+        <v>289600</v>
       </c>
       <c r="K22" s="3">
         <v>317300</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2243400</v>
+        <v>2223600</v>
       </c>
       <c r="E23" s="3">
-        <v>2244700</v>
+        <v>2224900</v>
       </c>
       <c r="F23" s="3">
-        <v>1903000</v>
+        <v>1886200</v>
       </c>
       <c r="G23" s="3">
-        <v>1711300</v>
+        <v>1696200</v>
       </c>
       <c r="H23" s="3">
-        <v>1603000</v>
+        <v>1588900</v>
       </c>
       <c r="I23" s="3">
-        <v>1560000</v>
+        <v>1546200</v>
       </c>
       <c r="J23" s="3">
-        <v>1501300</v>
+        <v>1488000</v>
       </c>
       <c r="K23" s="3">
         <v>1248300</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>391300</v>
+        <v>387800</v>
       </c>
       <c r="E24" s="3">
-        <v>536100</v>
+        <v>531300</v>
       </c>
       <c r="F24" s="3">
-        <v>393900</v>
+        <v>390400</v>
       </c>
       <c r="G24" s="3">
-        <v>388700</v>
+        <v>385300</v>
       </c>
       <c r="H24" s="3">
-        <v>350900</v>
+        <v>347800</v>
       </c>
       <c r="I24" s="3">
-        <v>105600</v>
+        <v>104700</v>
       </c>
       <c r="J24" s="3">
-        <v>133000</v>
+        <v>131900</v>
       </c>
       <c r="K24" s="3">
         <v>238300</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,67 +1198,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1852100</v>
+        <v>1835800</v>
       </c>
       <c r="E26" s="3">
-        <v>1708600</v>
+        <v>1693600</v>
       </c>
       <c r="F26" s="3">
-        <v>1509100</v>
+        <v>1495800</v>
       </c>
       <c r="G26" s="3">
-        <v>1322600</v>
+        <v>1310900</v>
       </c>
       <c r="H26" s="3">
-        <v>1252100</v>
+        <v>1241100</v>
       </c>
       <c r="I26" s="3">
-        <v>1454300</v>
+        <v>1441500</v>
       </c>
       <c r="J26" s="3">
-        <v>1368200</v>
+        <v>1356200</v>
       </c>
       <c r="K26" s="3">
         <v>1010000</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1844300</v>
+        <v>1828000</v>
       </c>
       <c r="E27" s="3">
-        <v>1698200</v>
+        <v>1683200</v>
       </c>
       <c r="F27" s="3">
-        <v>1498700</v>
+        <v>1485400</v>
       </c>
       <c r="G27" s="3">
-        <v>1314700</v>
+        <v>1303200</v>
       </c>
       <c r="H27" s="3">
-        <v>1245600</v>
+        <v>1234600</v>
       </c>
       <c r="I27" s="3">
-        <v>1447800</v>
+        <v>1435000</v>
       </c>
       <c r="J27" s="3">
-        <v>1361700</v>
+        <v>1349700</v>
       </c>
       <c r="K27" s="3">
         <v>1000800</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1323,15 +1288,15 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="E29" s="3">
-        <v>451300</v>
+        <v>447300</v>
       </c>
       <c r="F29" s="3">
         <v>1300</v>
@@ -1353,7 +1318,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1383,7 +1348,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1413,27 +1378,27 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>18300</v>
+        <v>18100</v>
       </c>
       <c r="E32" s="3">
-        <v>23500</v>
+        <v>23300</v>
       </c>
       <c r="F32" s="3">
-        <v>24800</v>
+        <v>24600</v>
       </c>
       <c r="G32" s="3">
-        <v>28700</v>
+        <v>28400</v>
       </c>
       <c r="H32" s="3">
-        <v>19600</v>
+        <v>19400</v>
       </c>
       <c r="I32" s="3">
-        <v>20900</v>
+        <v>20700</v>
       </c>
       <c r="J32" s="3">
         <v>3900</v>
@@ -1443,37 +1408,37 @@
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1854700</v>
+        <v>1838400</v>
       </c>
       <c r="E33" s="3">
-        <v>2149500</v>
+        <v>2130600</v>
       </c>
       <c r="F33" s="3">
-        <v>1500000</v>
+        <v>1486700</v>
       </c>
       <c r="G33" s="3">
-        <v>1314700</v>
+        <v>1303200</v>
       </c>
       <c r="H33" s="3">
-        <v>1245600</v>
+        <v>1234600</v>
       </c>
       <c r="I33" s="3">
-        <v>1447800</v>
+        <v>1435000</v>
       </c>
       <c r="J33" s="3">
-        <v>1361700</v>
+        <v>1349700</v>
       </c>
       <c r="K33" s="3">
         <v>1000800</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1503,42 +1468,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1854700</v>
+        <v>1838400</v>
       </c>
       <c r="E35" s="3">
-        <v>2149500</v>
+        <v>2130600</v>
       </c>
       <c r="F35" s="3">
-        <v>1500000</v>
+        <v>1486700</v>
       </c>
       <c r="G35" s="3">
-        <v>1314700</v>
+        <v>1303200</v>
       </c>
       <c r="H35" s="3">
-        <v>1245600</v>
+        <v>1234600</v>
       </c>
       <c r="I35" s="3">
-        <v>1447800</v>
+        <v>1435000</v>
       </c>
       <c r="J35" s="3">
-        <v>1361700</v>
+        <v>1349700</v>
       </c>
       <c r="K35" s="3">
         <v>1000800</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1568,7 +1533,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1582,7 +1547,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1596,37 +1561,37 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>148700</v>
+        <v>147400</v>
       </c>
       <c r="E41" s="3">
-        <v>144800</v>
+        <v>143500</v>
       </c>
       <c r="F41" s="3">
-        <v>211300</v>
+        <v>209400</v>
       </c>
       <c r="G41" s="3">
-        <v>159100</v>
+        <v>157700</v>
       </c>
       <c r="H41" s="3">
-        <v>360000</v>
+        <v>356800</v>
       </c>
       <c r="I41" s="3">
-        <v>172200</v>
+        <v>170700</v>
       </c>
       <c r="J41" s="3">
-        <v>836100</v>
+        <v>828700</v>
       </c>
       <c r="K41" s="3">
         <v>956000</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1656,217 +1621,217 @@
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2336000</v>
+        <v>2315400</v>
       </c>
       <c r="E43" s="3">
-        <v>4608100</v>
+        <v>4567500</v>
       </c>
       <c r="F43" s="3">
-        <v>4879400</v>
+        <v>4836400</v>
       </c>
       <c r="G43" s="3">
-        <v>1839100</v>
+        <v>1822900</v>
       </c>
       <c r="H43" s="3">
-        <v>1710000</v>
+        <v>1694900</v>
       </c>
       <c r="I43" s="3">
-        <v>1620000</v>
+        <v>1605700</v>
       </c>
       <c r="J43" s="3">
-        <v>1571700</v>
+        <v>1557800</v>
       </c>
       <c r="K43" s="3">
         <v>1709200</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>276500</v>
+        <v>274100</v>
       </c>
       <c r="E44" s="3">
-        <v>513900</v>
+        <v>509400</v>
       </c>
       <c r="F44" s="3">
-        <v>545200</v>
+        <v>540400</v>
       </c>
       <c r="G44" s="3">
-        <v>206100</v>
+        <v>204300</v>
       </c>
       <c r="H44" s="3">
-        <v>185200</v>
+        <v>183600</v>
       </c>
       <c r="I44" s="3">
-        <v>185200</v>
+        <v>183600</v>
       </c>
       <c r="J44" s="3">
-        <v>207400</v>
+        <v>205600</v>
       </c>
       <c r="K44" s="3">
         <v>250200</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>305200</v>
+        <v>302500</v>
       </c>
       <c r="E45" s="3">
-        <v>315600</v>
+        <v>312900</v>
       </c>
       <c r="F45" s="3">
-        <v>326100</v>
+        <v>323200</v>
       </c>
       <c r="G45" s="3">
-        <v>289600</v>
+        <v>287000</v>
       </c>
       <c r="H45" s="3">
-        <v>270000</v>
+        <v>267600</v>
       </c>
       <c r="I45" s="3">
-        <v>388700</v>
+        <v>385300</v>
       </c>
       <c r="J45" s="3">
-        <v>302600</v>
+        <v>299900</v>
       </c>
       <c r="K45" s="3">
         <v>439800</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3066400</v>
+        <v>3039400</v>
       </c>
       <c r="E46" s="3">
-        <v>2882500</v>
+        <v>2857100</v>
       </c>
       <c r="F46" s="3">
-        <v>3138200</v>
+        <v>3110500</v>
       </c>
       <c r="G46" s="3">
-        <v>2493800</v>
+        <v>2471900</v>
       </c>
       <c r="H46" s="3">
-        <v>2525100</v>
+        <v>2502900</v>
       </c>
       <c r="I46" s="3">
-        <v>2366000</v>
+        <v>2345200</v>
       </c>
       <c r="J46" s="3">
-        <v>2917700</v>
+        <v>2892000</v>
       </c>
       <c r="K46" s="3">
         <v>3355200</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>332600</v>
+        <v>329700</v>
       </c>
       <c r="E47" s="3">
-        <v>316900</v>
+        <v>314200</v>
       </c>
       <c r="F47" s="3">
-        <v>311700</v>
+        <v>309000</v>
       </c>
       <c r="G47" s="3">
-        <v>315600</v>
+        <v>312900</v>
       </c>
       <c r="H47" s="3">
-        <v>309100</v>
+        <v>306400</v>
       </c>
       <c r="I47" s="3">
-        <v>283000</v>
+        <v>280500</v>
       </c>
       <c r="J47" s="3">
-        <v>233500</v>
+        <v>231400</v>
       </c>
       <c r="K47" s="3">
         <v>247600</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>601300</v>
+        <v>596000</v>
       </c>
       <c r="E48" s="3">
-        <v>880400</v>
+        <v>872600</v>
       </c>
       <c r="F48" s="3">
-        <v>1031700</v>
+        <v>1022600</v>
       </c>
       <c r="G48" s="3">
-        <v>298700</v>
+        <v>296100</v>
       </c>
       <c r="H48" s="3">
-        <v>296100</v>
+        <v>293500</v>
       </c>
       <c r="I48" s="3">
-        <v>309100</v>
+        <v>306400</v>
       </c>
       <c r="J48" s="3">
-        <v>344300</v>
+        <v>341300</v>
       </c>
       <c r="K48" s="3">
         <v>379200</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13607900</v>
+        <v>13487900</v>
       </c>
       <c r="E49" s="3">
-        <v>16112100</v>
+        <v>15970100</v>
       </c>
       <c r="F49" s="3">
-        <v>17738600</v>
+        <v>17582200</v>
       </c>
       <c r="G49" s="3">
-        <v>10939200</v>
+        <v>10842800</v>
       </c>
       <c r="H49" s="3">
-        <v>10623600</v>
+        <v>10529900</v>
       </c>
       <c r="I49" s="3">
-        <v>10043200</v>
+        <v>9954600</v>
       </c>
       <c r="J49" s="3">
-        <v>10199700</v>
+        <v>10109800</v>
       </c>
       <c r="K49" s="3">
         <v>10828000</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1896,7 +1861,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1926,37 +1891,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>650900</v>
+        <v>645100</v>
       </c>
       <c r="E52" s="3">
-        <v>703000</v>
+        <v>696800</v>
       </c>
       <c r="F52" s="3">
-        <v>683500</v>
+        <v>677400</v>
       </c>
       <c r="G52" s="3">
-        <v>541300</v>
+        <v>536500</v>
       </c>
       <c r="H52" s="3">
-        <v>706900</v>
+        <v>700700</v>
       </c>
       <c r="I52" s="3">
-        <v>687400</v>
+        <v>681300</v>
       </c>
       <c r="J52" s="3">
-        <v>670400</v>
+        <v>664500</v>
       </c>
       <c r="K52" s="3">
         <v>337100</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1986,37 +1951,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18259000</v>
+        <v>18098000</v>
       </c>
       <c r="E54" s="3">
-        <v>16476000</v>
+        <v>16330800</v>
       </c>
       <c r="F54" s="3">
-        <v>17887300</v>
+        <v>17729600</v>
       </c>
       <c r="G54" s="3">
-        <v>14588700</v>
+        <v>14460100</v>
       </c>
       <c r="H54" s="3">
-        <v>14460900</v>
+        <v>14333400</v>
       </c>
       <c r="I54" s="3">
-        <v>13688700</v>
+        <v>13568000</v>
       </c>
       <c r="J54" s="3">
-        <v>14365700</v>
+        <v>14239000</v>
       </c>
       <c r="K54" s="3">
         <v>15147000</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2030,7 +1995,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2044,187 +2009,187 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>243900</v>
+        <v>241800</v>
       </c>
       <c r="E57" s="3">
-        <v>4614600</v>
+        <v>4574000</v>
       </c>
       <c r="F57" s="3">
-        <v>4925100</v>
+        <v>4881700</v>
       </c>
       <c r="G57" s="3">
-        <v>318300</v>
+        <v>315400</v>
       </c>
       <c r="H57" s="3">
-        <v>434300</v>
+        <v>430500</v>
       </c>
       <c r="I57" s="3">
-        <v>1985200</v>
+        <v>1967700</v>
       </c>
       <c r="J57" s="3">
-        <v>1500000</v>
+        <v>1486700</v>
       </c>
       <c r="K57" s="3">
         <v>1639400</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1815600</v>
+        <v>1799600</v>
       </c>
       <c r="E58" s="3">
-        <v>1987800</v>
+        <v>1970200</v>
       </c>
       <c r="F58" s="3">
-        <v>3036400</v>
+        <v>3009700</v>
       </c>
       <c r="G58" s="3">
-        <v>813900</v>
+        <v>806700</v>
       </c>
       <c r="H58" s="3">
-        <v>881700</v>
+        <v>873900</v>
       </c>
       <c r="I58" s="3">
-        <v>845200</v>
+        <v>837700</v>
       </c>
       <c r="J58" s="3">
-        <v>952100</v>
+        <v>943800</v>
       </c>
       <c r="K58" s="3">
         <v>1293100</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4880700</v>
+        <v>4837700</v>
       </c>
       <c r="E59" s="3">
-        <v>4776400</v>
+        <v>4734300</v>
       </c>
       <c r="F59" s="3">
-        <v>5011200</v>
+        <v>4967000</v>
       </c>
       <c r="G59" s="3">
-        <v>4314700</v>
+        <v>4276600</v>
       </c>
       <c r="H59" s="3">
-        <v>3817700</v>
+        <v>3784100</v>
       </c>
       <c r="I59" s="3">
-        <v>3748600</v>
+        <v>3715500</v>
       </c>
       <c r="J59" s="3">
-        <v>2658200</v>
+        <v>2634700</v>
       </c>
       <c r="K59" s="3">
         <v>2893000</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6940200</v>
+        <v>6879000</v>
       </c>
       <c r="E60" s="3">
-        <v>6083300</v>
+        <v>6029700</v>
       </c>
       <c r="F60" s="3">
-        <v>6993700</v>
+        <v>6932000</v>
       </c>
       <c r="G60" s="3">
-        <v>5446800</v>
+        <v>5398800</v>
       </c>
       <c r="H60" s="3">
-        <v>5133800</v>
+        <v>5088500</v>
       </c>
       <c r="I60" s="3">
-        <v>5024200</v>
+        <v>4979900</v>
       </c>
       <c r="J60" s="3">
-        <v>5110300</v>
+        <v>5065200</v>
       </c>
       <c r="K60" s="3">
         <v>5825500</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6486300</v>
+        <v>6429100</v>
       </c>
       <c r="E61" s="3">
-        <v>5857700</v>
+        <v>5806000</v>
       </c>
       <c r="F61" s="3">
-        <v>5330700</v>
+        <v>5283700</v>
       </c>
       <c r="G61" s="3">
-        <v>4275500</v>
+        <v>4237800</v>
       </c>
       <c r="H61" s="3">
-        <v>4107300</v>
+        <v>4071100</v>
       </c>
       <c r="I61" s="3">
-        <v>3434200</v>
+        <v>3404000</v>
       </c>
       <c r="J61" s="3">
-        <v>4124200</v>
+        <v>4087900</v>
       </c>
       <c r="K61" s="3">
         <v>4345400</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1750400</v>
+        <v>1735000</v>
       </c>
       <c r="E62" s="3">
-        <v>1518200</v>
+        <v>1504800</v>
       </c>
       <c r="F62" s="3">
-        <v>2546000</v>
+        <v>2523600</v>
       </c>
       <c r="G62" s="3">
-        <v>2013900</v>
+        <v>1996100</v>
       </c>
       <c r="H62" s="3">
-        <v>2429900</v>
+        <v>2408500</v>
       </c>
       <c r="I62" s="3">
-        <v>2066000</v>
+        <v>2047800</v>
       </c>
       <c r="J62" s="3">
-        <v>1987800</v>
+        <v>1970200</v>
       </c>
       <c r="K62" s="3">
         <v>2060800</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2254,7 +2219,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2284,7 +2249,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2314,37 +2279,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15221300</v>
+        <v>15087100</v>
       </c>
       <c r="E66" s="3">
-        <v>13486600</v>
+        <v>13367700</v>
       </c>
       <c r="F66" s="3">
-        <v>14926500</v>
+        <v>14794900</v>
       </c>
       <c r="G66" s="3">
-        <v>11792300</v>
+        <v>11688300</v>
       </c>
       <c r="H66" s="3">
-        <v>11714000</v>
+        <v>11610700</v>
       </c>
       <c r="I66" s="3">
-        <v>10571400</v>
+        <v>10478200</v>
       </c>
       <c r="J66" s="3">
-        <v>11391800</v>
+        <v>11291400</v>
       </c>
       <c r="K66" s="3">
         <v>12287000</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2358,7 +2323,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2388,7 +2353,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2418,7 +2383,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2448,7 +2413,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2478,37 +2443,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1283400</v>
+        <v>1272100</v>
       </c>
       <c r="E72" s="3">
-        <v>1193400</v>
+        <v>1182900</v>
       </c>
       <c r="F72" s="3">
-        <v>-322200</v>
+        <v>-319300</v>
       </c>
       <c r="G72" s="3">
-        <v>483900</v>
+        <v>479600</v>
       </c>
       <c r="H72" s="3">
-        <v>107000</v>
+        <v>106000</v>
       </c>
       <c r="I72" s="3">
-        <v>1052600</v>
+        <v>1043300</v>
       </c>
       <c r="J72" s="3">
-        <v>294800</v>
+        <v>292200</v>
       </c>
       <c r="K72" s="3">
         <v>-198800</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2538,7 +2503,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2568,7 +2533,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2598,37 +2563,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3037700</v>
+        <v>3011000</v>
       </c>
       <c r="E76" s="3">
-        <v>2989500</v>
+        <v>2963100</v>
       </c>
       <c r="F76" s="3">
-        <v>2960800</v>
+        <v>2934700</v>
       </c>
       <c r="G76" s="3">
-        <v>2796400</v>
+        <v>2771800</v>
       </c>
       <c r="H76" s="3">
-        <v>2746900</v>
+        <v>2722700</v>
       </c>
       <c r="I76" s="3">
-        <v>3117300</v>
+        <v>3089800</v>
       </c>
       <c r="J76" s="3">
-        <v>2973800</v>
+        <v>2947600</v>
       </c>
       <c r="K76" s="3">
         <v>2860100</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2658,12 +2623,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2693,37 +2658,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1854700</v>
+        <v>1838400</v>
       </c>
       <c r="E81" s="3">
-        <v>2149500</v>
+        <v>2130600</v>
       </c>
       <c r="F81" s="3">
-        <v>1500000</v>
+        <v>1486700</v>
       </c>
       <c r="G81" s="3">
-        <v>1314700</v>
+        <v>1303200</v>
       </c>
       <c r="H81" s="3">
-        <v>1245600</v>
+        <v>1234600</v>
       </c>
       <c r="I81" s="3">
-        <v>1447800</v>
+        <v>1435000</v>
       </c>
       <c r="J81" s="3">
-        <v>1361700</v>
+        <v>1349700</v>
       </c>
       <c r="K81" s="3">
         <v>1000800</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2737,37 +2702,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>849100</v>
+        <v>841600</v>
       </c>
       <c r="E83" s="3">
-        <v>855600</v>
+        <v>848100</v>
       </c>
       <c r="F83" s="3">
-        <v>870000</v>
+        <v>862300</v>
       </c>
       <c r="G83" s="3">
-        <v>678200</v>
+        <v>672300</v>
       </c>
       <c r="H83" s="3">
-        <v>676900</v>
+        <v>671000</v>
       </c>
       <c r="I83" s="3">
-        <v>738200</v>
+        <v>731700</v>
       </c>
       <c r="J83" s="3">
-        <v>723900</v>
+        <v>717500</v>
       </c>
       <c r="K83" s="3">
         <v>740000</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2797,7 +2762,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2827,7 +2792,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2857,7 +2822,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2887,7 +2852,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2917,37 +2882,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2589100</v>
+        <v>2566200</v>
       </c>
       <c r="E89" s="3">
-        <v>2496400</v>
+        <v>2474400</v>
       </c>
       <c r="F89" s="3">
-        <v>2270800</v>
+        <v>2250800</v>
       </c>
       <c r="G89" s="3">
-        <v>1835200</v>
+        <v>1819000</v>
       </c>
       <c r="H89" s="3">
-        <v>1796000</v>
+        <v>1780200</v>
       </c>
       <c r="I89" s="3">
-        <v>1807800</v>
+        <v>1791800</v>
       </c>
       <c r="J89" s="3">
-        <v>1835200</v>
+        <v>1819000</v>
       </c>
       <c r="K89" s="3">
         <v>1688100</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2961,37 +2926,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-73000</v>
+        <v>-72400</v>
       </c>
       <c r="E91" s="3">
-        <v>-66500</v>
+        <v>-65900</v>
       </c>
       <c r="F91" s="3">
-        <v>-66500</v>
+        <v>-65900</v>
       </c>
       <c r="G91" s="3">
-        <v>-84800</v>
+        <v>-84000</v>
       </c>
       <c r="H91" s="3">
-        <v>-87400</v>
+        <v>-86600</v>
       </c>
       <c r="I91" s="3">
-        <v>-74300</v>
+        <v>-73700</v>
       </c>
       <c r="J91" s="3">
-        <v>-91300</v>
+        <v>-90500</v>
       </c>
       <c r="K91" s="3">
         <v>-460900</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3021,7 +2986,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3051,37 +3016,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1657800</v>
+        <v>-1643200</v>
       </c>
       <c r="E94" s="3">
-        <v>-541300</v>
+        <v>-536500</v>
       </c>
       <c r="F94" s="3">
-        <v>-860800</v>
+        <v>-853300</v>
       </c>
       <c r="G94" s="3">
-        <v>-550400</v>
+        <v>-545600</v>
       </c>
       <c r="H94" s="3">
-        <v>-736900</v>
+        <v>-730400</v>
       </c>
       <c r="I94" s="3">
-        <v>-412200</v>
+        <v>-408500</v>
       </c>
       <c r="J94" s="3">
-        <v>-620900</v>
+        <v>-615400</v>
       </c>
       <c r="K94" s="3">
         <v>-949400</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3095,37 +3060,37 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1038200</v>
+        <v>-1029100</v>
       </c>
       <c r="E96" s="3">
-        <v>-993900</v>
+        <v>-985100</v>
       </c>
       <c r="F96" s="3">
-        <v>-890800</v>
+        <v>-883000</v>
       </c>
       <c r="G96" s="3">
-        <v>-760400</v>
+        <v>-753700</v>
       </c>
       <c r="H96" s="3">
-        <v>-736900</v>
+        <v>-730400</v>
       </c>
       <c r="I96" s="3">
-        <v>-716100</v>
+        <v>-709800</v>
       </c>
       <c r="J96" s="3">
-        <v>-679500</v>
+        <v>-673600</v>
       </c>
       <c r="K96" s="3">
         <v>-654400</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3155,7 +3120,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3185,7 +3150,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3215,37 +3180,37 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-930000</v>
+        <v>-921800</v>
       </c>
       <c r="E100" s="3">
-        <v>-2013900</v>
+        <v>-1996100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1398200</v>
+        <v>-1385900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1466000</v>
+        <v>-1453100</v>
       </c>
       <c r="H100" s="3">
-        <v>-873900</v>
+        <v>-866200</v>
       </c>
       <c r="I100" s="3">
-        <v>-2089500</v>
+        <v>-2071100</v>
       </c>
       <c r="J100" s="3">
-        <v>-1308200</v>
+        <v>-1296700</v>
       </c>
       <c r="K100" s="3">
         <v>-796700</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3256,26 +3221,26 @@
         <v>-7800</v>
       </c>
       <c r="F101" s="3">
-        <v>40400</v>
+        <v>40100</v>
       </c>
       <c r="G101" s="3">
-        <v>-19600</v>
+        <v>-19400</v>
       </c>
       <c r="H101" s="3">
         <v>2600</v>
       </c>
       <c r="I101" s="3">
-        <v>30000</v>
+        <v>29700</v>
       </c>
       <c r="J101" s="3">
-        <v>-17000</v>
+        <v>-16800</v>
       </c>
       <c r="K101" s="3">
         <v>36900</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3283,22 +3248,22 @@
         <v>3900</v>
       </c>
       <c r="E102" s="3">
-        <v>-66500</v>
+        <v>-65900</v>
       </c>
       <c r="F102" s="3">
-        <v>52200</v>
+        <v>51700</v>
       </c>
       <c r="G102" s="3">
-        <v>-200900</v>
+        <v>-199100</v>
       </c>
       <c r="H102" s="3">
-        <v>187800</v>
+        <v>186200</v>
       </c>
       <c r="I102" s="3">
-        <v>-663900</v>
+        <v>-658000</v>
       </c>
       <c r="J102" s="3">
-        <v>-110900</v>
+        <v>-109900</v>
       </c>
       <c r="K102" s="3">
         <v>-21100</v>
